--- a/ProblemaToy.xlsx
+++ b/ProblemaToy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Celso Assis\Desktop\Problema Toy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C8A1EAC-E21A-4EEC-93E9-974605396B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BAD804-109B-4210-AAA2-F13BA5884012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Area" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="44">
   <si>
     <t>Area</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Carga Horaria Maxima</t>
+  </si>
+  <si>
+    <t>Nome</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1139,7 +1144,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1150,7 +1157,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" customHeight="1">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="14.25" customHeight="1">
@@ -1173,7 +1180,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="7" spans="1:1" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:1" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:1" ht="14.25" customHeight="1"/>
@@ -1278,7 +1289,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1287,20 +1300,24 @@
   <sheetData>
     <row r="1" spans="1:1" ht="14.25" customHeight="1">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25" customHeight="1">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:1" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:1" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:1" ht="14.25" customHeight="1"/>
@@ -1716,7 +1733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
